--- a/EtsyFinalProject/src/main/java/etsy/excel/files/LoginTest.xlsx
+++ b/EtsyFinalProject/src/main/java/etsy/excel/files/LoginTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Shah\Documents\NetBeansProjects\TestFileEtsy\src\main\java\etsy\excel\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958715A7-A8F5-48A3-B566-4472C9995954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C375858-49A3-4462-9BF3-8D0ECA410E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11260" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CorrectLogin" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
   <si>
     <t>NA</t>
   </si>
@@ -96,9 +96,6 @@
     <t>BlankInput</t>
   </si>
   <si>
-    <t>Can't be blank.</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>invalid_email_error_xpath</t>
-  </si>
-  <si>
-    <t>blank_password_error_xpath</t>
   </si>
 </sst>
 </file>
@@ -447,16 +441,16 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -490,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -504,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -515,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -524,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -532,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -541,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -549,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -558,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -566,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -575,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -583,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -592,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -623,16 +617,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -666,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -680,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -691,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -700,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -708,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -717,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -725,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -734,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -742,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -751,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -759,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -768,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -799,16 +793,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -822,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -839,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -853,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -864,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -881,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -890,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -898,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -907,7 +901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -915,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -924,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -932,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -941,7 +935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -969,22 +963,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCA130E-8215-4A36-B588-6D9657EFB844}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1032,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1052,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1069,37 +1063,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
